--- a/jenter-sr.xlsx
+++ b/jenter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31720" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="18520" yWindow="460" windowWidth="15040" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>Dag1</t>
   </si>
@@ -265,19 +265,28 @@
     <t>Tour de Synnfjell Sammenlagt - Kvinner</t>
   </si>
   <si>
-    <t>Pauline Johnsen Sjøvold</t>
+    <t>Dyrhovd, Margrethe Røssum</t>
   </si>
   <si>
-    <t>Kristine Alm Karsrud</t>
+    <t>Hustad, Sofie Nordsveen</t>
   </si>
   <si>
-    <t>Margrete Røssum Dyrhovd</t>
+    <t>Karsrud, Kristine Alm</t>
   </si>
   <si>
-    <t>Gina Flugstad Øistuen</t>
+    <t>Sjøvold, Pauline Johnsen</t>
   </si>
   <si>
-    <t>Sofie Nordsveen Hustad</t>
+    <t>Øistuen, Gina Flugstad</t>
+  </si>
+  <si>
+    <t>Ensrud, Julie Synnøve</t>
+  </si>
+  <si>
+    <t>Forren, Pauline</t>
+  </si>
+  <si>
+    <t>Øren, Karoline Bye</t>
   </si>
 </sst>
 </file>
@@ -880,8 +889,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,33 +1201,35 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1226,41 +1237,43 @@
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1268,41 +1281,43 @@
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="12" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1310,11 +1325,11 @@
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12913,7 +12928,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Pauline Johnsen Sjøvold</v>
+        <v>Dyrhovd, Margrethe Røssum</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -12983,7 +12998,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Sofie Nordsveen Hustad</v>
+        <v>Øistuen, Gina Flugstad</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
@@ -13053,7 +13068,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
+        <v>Ensrud, Julie Synnøve</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
@@ -13065,11 +13080,11 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
@@ -13081,11 +13096,11 @@
       </c>
       <c r="H9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13097,11 +13112,11 @@
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N9" s="27" t="str">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
@@ -13113,17 +13128,17 @@
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q9" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
+        <v>Forren, Pauline</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
@@ -13135,11 +13150,11 @@
       </c>
       <c r="D10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
@@ -13151,11 +13166,11 @@
       </c>
       <c r="H10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
@@ -13167,11 +13182,11 @@
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N10" s="27" t="str">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
@@ -13183,17 +13198,17 @@
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q10" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
+        <v>Øren, Karoline Bye</v>
       </c>
       <c r="B11" s="19" t="str">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
@@ -13205,11 +13220,11 @@
       </c>
       <c r="D11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
@@ -13221,11 +13236,11 @@
       </c>
       <c r="H11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="19" t="str">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
@@ -13237,11 +13252,11 @@
       </c>
       <c r="L11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(M11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N11" s="27" t="str">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
@@ -13253,11 +13268,11 @@
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -19843,7 +19858,7 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Kristine Alm Karsrud</v>
+        <v>Hustad, Sofie Nordsveen</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -26773,7 +26788,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Gina Flugstad Øistuen</v>
+        <v>Sjøvold, Pauline Johnsen</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26843,7 +26858,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Margrete Røssum Dyrhovd</v>
+        <v>Karsrud, Kristine Alm</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -33729,7 +33744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33845,7 +33860,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Pauline Johnsen Sjøvold</v>
+        <v>Dyrhovd, Margrethe Røssum</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -33893,7 +33908,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v>Sofie Nordsveen Hustad</v>
+        <v>Øistuen, Gina Flugstad</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
@@ -33917,15 +33932,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v/>
+        <v>Ensrud, Julie Synnøve</v>
       </c>
       <c r="B9" s="41" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!Q9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -33941,15 +33956,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v/>
+        <v>Forren, Pauline</v>
       </c>
       <c r="B10" s="41" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!Q10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -33965,15 +33980,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
-        <v/>
+        <v>Øren, Karoline Bye</v>
       </c>
       <c r="B11" s="41" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!Q11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -36206,7 +36221,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Kristine Alm Karsrud</v>
+        <v>Hustad, Sofie Nordsveen</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
@@ -37578,7 +37593,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Gina Flugstad Øistuen</v>
+        <v>Sjøvold, Pauline Johnsen</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37592,7 +37607,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Margrete Røssum Dyrhovd</v>
+        <v>Karsrud, Kristine Alm</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -48462,7 +48477,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Pauline Johnsen Sjøvold</v>
+        <v>Dyrhovd, Margrethe Røssum</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -48486,7 +48501,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Kristine Alm Karsrud</v>
+        <v>Hustad, Sofie Nordsveen</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
@@ -48510,7 +48525,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Margrete Røssum Dyrhovd</v>
+        <v>Karsrud, Kristine Alm</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
@@ -48534,7 +48549,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Gina Flugstad Øistuen</v>
+        <v>Sjøvold, Pauline Johnsen</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
@@ -48558,7 +48573,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Sofie Nordsveen Hustad</v>
+        <v>Øistuen, Gina Flugstad</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
@@ -48582,15 +48597,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Ensrud, Julie Synnøve</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -48606,15 +48621,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Forren, Pauline</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -48630,15 +48645,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Øren, Karoline Bye</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -50921,7 +50936,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Pauline Johnsen Sjøvold</v>
+        <v>Dyrhovd, Margrethe Røssum</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -50945,7 +50960,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Kristine Alm Karsrud</v>
+        <v>Hustad, Sofie Nordsveen</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
@@ -50969,7 +50984,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Margrete Røssum Dyrhovd</v>
+        <v>Karsrud, Kristine Alm</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -50993,7 +51008,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Gina Flugstad Øistuen</v>
+        <v>Sjøvold, Pauline Johnsen</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -51017,7 +51032,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Sofie Nordsveen Hustad</v>
+        <v>Øistuen, Gina Flugstad</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
@@ -51041,15 +51056,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Ensrud, Julie Synnøve</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51065,15 +51080,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Forren, Pauline</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -51089,15 +51104,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="25" t="str">
+        <v>Øren, Karoline Bye</v>
+      </c>
+      <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -53382,7 +53397,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Pauline Johnsen Sjøvold</v>
+        <v>Dyrhovd, Margrethe Røssum</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -53406,7 +53421,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Kristine Alm Karsrud</v>
+        <v>Hustad, Sofie Nordsveen</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
@@ -53430,7 +53445,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Margrete Røssum Dyrhovd</v>
+        <v>Karsrud, Kristine Alm</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53454,7 +53469,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Gina Flugstad Øistuen</v>
+        <v>Sjøvold, Pauline Johnsen</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -53478,7 +53493,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Sofie Nordsveen Hustad</v>
+        <v>Øistuen, Gina Flugstad</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
@@ -53502,15 +53517,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Ensrud, Julie Synnøve</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -53526,15 +53541,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Forren, Pauline</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -53550,15 +53565,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Øren, Karoline Bye</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!H11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!I11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>

--- a/jenter-sr.xlsx
+++ b/jenter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="460" windowWidth="15040" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="28820" windowHeight="20460" tabRatio="991" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>Dag1</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Øren, Karoline Bye</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
 </sst>
 </file>
@@ -889,8 +892,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,14 +987,16 @@
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>5.4282407407407404E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1011,9 +1016,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1028,14 +1033,16 @@
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>5.5787037037037038E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -1055,9 +1062,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>5.5787037037037038E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1072,14 +1079,16 @@
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -1099,9 +1108,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.37037037037037E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1116,14 +1125,16 @@
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -1143,9 +1154,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.2268518518518515E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1160,14 +1171,16 @@
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -1187,9 +1200,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.4976851851851853E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1204,7 +1217,9 @@
       <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1233,7 +1248,7 @@
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1248,7 +1263,9 @@
       <c r="A10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1277,7 +1294,7 @@
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1292,7 +1309,9 @@
       <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1321,7 +1340,7 @@
       </c>
       <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -12596,7 +12615,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12930,21 +12949,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Dyrhovd, Margrethe Røssum</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>5.4282407407407404E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>5.4282407407407404E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12978,13 +12997,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>5.4282407407407404E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13000,21 +13019,21 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Øistuen, Gina Flugstad</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="19">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="20" t="str">
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="23" t="str">
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="D8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
@@ -13048,13 +13067,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="27">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v/>
-      </c>
-      <c r="O8" s="28" t="str">
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="O8" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.4976851851851853E-3</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13072,11 +13091,11 @@
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13120,11 +13139,11 @@
       </c>
       <c r="N9" s="27" t="str">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O9" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13142,11 +13161,11 @@
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13190,11 +13209,11 @@
       </c>
       <c r="N10" s="27" t="str">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O10" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13212,11 +13231,11 @@
       </c>
       <c r="B11" s="19" t="str">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13260,11 +13279,11 @@
       </c>
       <c r="N11" s="27" t="str">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O11" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19860,21 +19879,21 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Hustad, Sofie Nordsveen</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>5.5787037037037038E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>5.5787037037037038E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19908,13 +19927,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27" t="str">
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>5.5787037037037038E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>5.5787037037037038E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26790,21 +26809,21 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Sjøvold, Pauline Johnsen</v>
       </c>
-      <c r="B205" s="19" t="str">
+      <c r="B205" s="19">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v/>
-      </c>
-      <c r="C205" s="20" t="str">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="C205" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D205" s="23" t="str">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="D205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E205" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E205" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26838,13 +26857,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27" t="str">
+      <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v/>
-      </c>
-      <c r="O205" s="28" t="str">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>6.2268518518518515E-3</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26860,21 +26879,21 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Karsrud, Kristine Alm</v>
       </c>
-      <c r="B206" s="19" t="str">
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26908,13 +26927,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27" t="str">
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>5.37037037037037E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -48481,11 +48500,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>5.4282407407407404E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48505,11 +48524,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>5.5787037037037038E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48529,11 +48548,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48553,11 +48572,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>6.2268518518518515E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -48577,11 +48596,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>5.4976851851851853E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -48599,9 +48618,9 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Ensrud, Julie Synnøve</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="36" t="str">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
@@ -48623,9 +48642,9 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Forren, Pauline</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
@@ -48647,9 +48666,9 @@
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v>Øren, Karoline Bye</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="36" t="str">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>

--- a/jenter-sr.xlsx
+++ b/jenter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="28820" windowHeight="20460" tabRatio="991" activeTab="12"/>
+    <workbookView xWindow="14460" yWindow="460" windowWidth="19000" windowHeight="20400" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t>Dag1</t>
   </si>
@@ -892,8 +892,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,14 +998,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.560185185185185E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -1018,7 +1020,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>5.4282407407407404E-3</v>
+        <v>4.103009259259259E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1044,14 +1046,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>3.2627314814814817E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -1064,7 +1068,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>5.5787037037037038E-3</v>
+        <v>3.8206018518518521E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1090,14 +1094,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>3.9884259259259258E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -1110,7 +1116,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>5.37037037037037E-3</v>
+        <v>4.5254629629629631E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1136,7 +1142,9 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1154,9 +1162,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>6.2268518518518515E-3</v>
+        <v>-</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1182,7 +1190,9 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1200,9 +1210,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>5.4976851851851853E-3</v>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1228,14 +1238,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -1274,7 +1286,9 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1320,7 +1334,9 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -12615,7 +12631,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12965,21 +12981,21 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="19">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>3.560185185185185E-2</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>3.560185185185185E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I7" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -12999,11 +13015,11 @@
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>5.4282407407407404E-3</v>
+        <v>4.103009259259259E-2</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>5.4282407407407404E-3</v>
+        <v>4.103009259259259E-2</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13037,11 +13053,11 @@
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13067,13 +13083,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v>5.4976851851851853E-3</v>
-      </c>
-      <c r="O8" s="28">
+        <v>-</v>
+      </c>
+      <c r="O8" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>5.4976851851851853E-3</v>
+        <v>-</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13105,21 +13121,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="19">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="21" t="str">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="H9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I9" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13177,11 +13193,11 @@
       </c>
       <c r="F10" s="19" t="str">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13247,11 +13263,11 @@
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19895,21 +19911,21 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="F106" s="19" t="str">
+      <c r="F106" s="19">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
-      </c>
-      <c r="G106" s="21" t="str">
+        <v>3.2627314814814817E-2</v>
+      </c>
+      <c r="G106" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H106" s="23" t="str">
+        <v>3.2627314814814817E-2</v>
+      </c>
+      <c r="H106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I106" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I106" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19929,11 +19945,11 @@
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>5.5787037037037038E-3</v>
+        <v>3.8206018518518521E-2</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>5.5787037037037038E-3</v>
+        <v>3.8206018518518521E-2</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26827,11 +26843,11 @@
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G205" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26857,13 +26873,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27">
+      <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>6.2268518518518515E-3</v>
-      </c>
-      <c r="O205" s="28">
+        <v>-</v>
+      </c>
+      <c r="O205" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>6.2268518518518515E-3</v>
+        <v>-</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26895,21 +26911,21 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="F206" s="19" t="str">
+      <c r="F206" s="19">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
-      </c>
-      <c r="G206" s="21" t="str">
+        <v>3.9884259259259258E-2</v>
+      </c>
+      <c r="G206" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H206" s="23" t="str">
+        <v>3.9884259259259258E-2</v>
+      </c>
+      <c r="H206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I206" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I206" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26929,11 +26945,11 @@
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>5.37037037037037E-3</v>
+        <v>4.5254629629629631E-2</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>5.37037037037037E-3</v>
+        <v>4.5254629629629631E-2</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -50959,11 +50975,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.560185185185185E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -50983,11 +50999,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.2627314814814817E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -51007,11 +51023,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.9884259259259258E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -51029,9 +51045,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Sjøvold, Pauline Johnsen</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="25" t="str">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
@@ -51053,9 +51069,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Øistuen, Gina Flugstad</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="25" t="str">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
@@ -51079,11 +51095,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51101,9 +51117,9 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Forren, Pauline</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="25" t="str">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
@@ -51125,9 +51141,9 @@
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v>Øren, Karoline Bye</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="25" t="str">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!F11)</f>

--- a/jenter-sr.xlsx
+++ b/jenter-sr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="19000" windowHeight="20400" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t>Dag1</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>DNS</t>
+  </si>
+  <si>
+    <t>DBS</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1060,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -1066,9 +1071,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>3.8206018518518521E-2</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1153,7 +1158,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1201,7 +1208,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1249,7 +1258,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1297,7 +1308,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -13069,11 +13082,11 @@
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13139,11 +13152,11 @@
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K9" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13209,11 +13222,11 @@
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
-        <v/>
+        <v>DBS</v>
       </c>
       <c r="K10" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DBS</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19929,11 +19942,11 @@
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K106" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19943,13 +19956,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="27" t="str">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>3.8206018518518521E-2</v>
-      </c>
-      <c r="O106" s="28">
+        <v>-</v>
+      </c>
+      <c r="O106" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>3.8206018518518521E-2</v>
+        <v>-</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26859,11 +26872,11 @@
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K205" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -53458,9 +53471,9 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Hustad, Sofie Nordsveen</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="36" t="str">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
@@ -53506,9 +53519,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Sjøvold, Pauline Johnsen</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="36" t="str">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
@@ -53530,9 +53543,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Øistuen, Gina Flugstad</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
@@ -53554,9 +53567,9 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Ensrud, Julie Synnøve</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="36" t="str">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
@@ -53578,9 +53591,9 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Forren, Pauline</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v>0</v>
+        <v>DBS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>

--- a/jenter-sr.xlsx
+++ b/jenter-sr.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>Dag1</t>
   </si>
@@ -291,9 +291,6 @@
   <si>
     <t>DNS</t>
   </si>
-  <si>
-    <t>DBS</t>
-  </si>
 </sst>
 </file>
 
@@ -303,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -313,6 +310,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -895,8 +897,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,26 +1014,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.103009259259259E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>0.1121412037037037</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1110,26 +1114,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>4.5254629629629631E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>0.12402777777777778</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1309,7 +1315,7 @@
         <v>-</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1358,7 +1364,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -13010,37 +13018,37 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="19">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="29" t="str">
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="K7" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L7" s="23" t="str">
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="L7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M7" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>4.103009259259259E-2</v>
+        <v>0.1121412037037037</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>4.103009259259259E-2</v>
-      </c>
-      <c r="P7" s="23" t="str">
+        <v>0.1121412037037037</v>
+      </c>
+      <c r="P7" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q7" s="23" t="str">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -13222,11 +13230,11 @@
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
-        <v>DBS</v>
+        <v>DNS</v>
       </c>
       <c r="K10" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>DBS</v>
+        <v>DNS</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13292,11 +13300,11 @@
       </c>
       <c r="J11" s="19" t="str">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K11" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(M11,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26940,37 +26948,37 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="J206" s="19" t="str">
+      <c r="J206" s="19">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
-      </c>
-      <c r="K206" s="29" t="str">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="K206" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L206" s="23" t="str">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="L206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M206" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M206" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>4.5254629629629631E-2</v>
+        <v>0.12402777777777778</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>4.5254629629629631E-2</v>
-      </c>
-      <c r="P206" s="23" t="str">
+        <v>0.12402777777777778</v>
+      </c>
+      <c r="P206" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q206" s="23" t="str">
+        <v>230</v>
+      </c>
+      <c r="Q206" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -33790,10 +33798,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33857,7 +33866,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v/>
@@ -33881,7 +33890,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v/>
@@ -33910,13 +33919,13 @@
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
         <v>Dyrhovd, Margrethe Røssum</v>
       </c>
-      <c r="B6" s="41" t="str">
+      <c r="B6" s="41">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>240</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -33929,7 +33938,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
         <v/>
@@ -33953,7 +33962,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v>Øistuen, Gina Flugstad</v>
@@ -33977,7 +33986,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
         <v>Ensrud, Julie Synnøve</v>
@@ -34001,7 +34010,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
         <v>Forren, Pauline</v>
@@ -34025,7 +34034,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
         <v>Øren, Karoline Bye</v>
@@ -34049,7 +34058,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
         <v/>
@@ -34073,7 +34082,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v/>
@@ -34097,7 +34106,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
         <v/>
@@ -34121,7 +34130,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
         <v/>
@@ -34145,7 +34154,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v/>
@@ -34169,7 +34178,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v/>
@@ -34193,7 +34202,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v/>
@@ -34217,7 +34226,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v/>
@@ -34241,7 +34250,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34265,7 +34274,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34289,7 +34298,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34313,7 +34322,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34337,7 +34346,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34361,7 +34370,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34385,7 +34394,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34409,7 +34418,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34433,7 +34442,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34457,7 +34466,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34481,7 +34490,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34505,7 +34514,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34529,7 +34538,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34553,7 +34562,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34577,7 +34586,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34601,7 +34610,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34625,7 +34634,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34649,7 +34658,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34673,7 +34682,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34697,7 +34706,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34721,7 +34730,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34745,7 +34754,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34769,7 +34778,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34793,7 +34802,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34817,7 +34826,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34841,7 +34850,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34865,7 +34874,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34889,7 +34898,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -34913,7 +34922,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -34937,7 +34946,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -34961,7 +34970,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -34985,7 +34994,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -35009,7 +35018,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35033,7 +35042,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35057,7 +35066,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35081,7 +35090,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35105,7 +35114,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35129,7 +35138,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35153,7 +35162,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35177,7 +35186,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35201,7 +35210,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35225,7 +35234,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35249,7 +35258,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35273,7 +35282,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35297,7 +35306,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35321,7 +35330,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35345,7 +35354,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35369,7 +35378,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35393,7 +35402,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35417,7 +35426,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35441,7 +35450,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35465,7 +35474,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35489,7 +35498,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35513,7 +35522,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35537,7 +35546,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35561,7 +35570,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35585,7 +35594,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35609,7 +35618,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35633,7 +35642,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35657,7 +35666,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35681,7 +35690,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35705,7 +35714,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35729,7 +35738,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35753,7 +35762,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35777,7 +35786,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35801,7 +35810,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35825,7 +35834,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35849,7 +35858,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35873,7 +35882,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -35897,7 +35906,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -35921,7 +35930,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -35945,7 +35954,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -35969,7 +35978,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -35993,7 +36002,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36017,7 +36026,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36041,7 +36050,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36065,7 +36074,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36089,7 +36098,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36113,7 +36122,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36137,7 +36146,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36161,7 +36170,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36185,7 +36194,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36209,7 +36218,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36224,7 +36233,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36238,7 +36247,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v/>
@@ -36252,7 +36261,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
         <v/>
@@ -36266,7 +36275,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
         <v>Hustad, Sofie Nordsveen</v>
@@ -36280,7 +36289,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
         <v/>
@@ -36294,7 +36303,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v/>
@@ -36308,7 +36317,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
         <v/>
@@ -36322,7 +36331,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
         <v/>
@@ -36336,7 +36345,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
         <v/>
@@ -36350,7 +36359,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v/>
@@ -36364,7 +36373,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v/>
@@ -36378,7 +36387,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36392,7 +36401,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36406,7 +36415,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36420,7 +36429,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36434,7 +36443,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36448,7 +36457,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36462,7 +36471,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36476,7 +36485,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36490,7 +36499,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36504,7 +36513,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36518,7 +36527,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36532,7 +36541,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36546,7 +36555,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36560,7 +36569,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36574,7 +36583,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36588,7 +36597,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36602,7 +36611,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36616,7 +36625,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36630,7 +36639,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36644,7 +36653,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36658,7 +36667,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36672,7 +36681,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36686,7 +36695,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36700,7 +36709,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36714,7 +36723,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36728,7 +36737,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36742,7 +36751,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36756,7 +36765,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36770,7 +36779,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36784,7 +36793,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36798,7 +36807,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36812,7 +36821,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36826,7 +36835,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36840,7 +36849,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36854,7 +36863,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36868,7 +36877,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36882,7 +36891,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -36896,7 +36905,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -36910,7 +36919,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -36924,7 +36933,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -36938,7 +36947,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -36952,7 +36961,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -36966,7 +36975,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -36980,7 +36989,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -36994,7 +37003,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -37008,7 +37017,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37022,7 +37031,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37036,7 +37045,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37050,7 +37059,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37064,7 +37073,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37078,7 +37087,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37092,7 +37101,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37106,7 +37115,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37120,7 +37129,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37134,7 +37143,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37148,7 +37157,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37162,7 +37171,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37176,7 +37185,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37190,7 +37199,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37204,7 +37213,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37218,7 +37227,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37232,7 +37241,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37246,7 +37255,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37260,7 +37269,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37274,7 +37283,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37288,7 +37297,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37302,7 +37311,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37316,7 +37325,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37330,7 +37339,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37344,7 +37353,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37358,7 +37367,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37372,7 +37381,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37386,7 +37395,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37400,7 +37409,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37414,7 +37423,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37428,7 +37437,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37442,7 +37451,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37456,7 +37465,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37470,7 +37479,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37484,7 +37493,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37498,7 +37507,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37512,7 +37521,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37526,7 +37535,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37540,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37554,7 +37563,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37568,7 +37577,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37582,7 +37591,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37596,7 +37605,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37610,7 +37619,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37624,7 +37633,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37638,7 +37647,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v>Sjøvold, Pauline Johnsen</v>
@@ -37657,16 +37666,16 @@
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
         <v>Karsrud, Kristine Alm</v>
       </c>
-      <c r="B205" s="41" t="str">
+      <c r="B205" s="41">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v>-</v>
-      </c>
-      <c r="C205" s="37" t="str">
+        <v>230</v>
+      </c>
+      <c r="C205" s="37">
         <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v/>
@@ -37680,7 +37689,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v/>
@@ -37694,7 +37703,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v/>
@@ -37708,7 +37717,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v/>
@@ -37722,7 +37731,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v/>
@@ -37736,7 +37745,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v/>
@@ -37750,7 +37759,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v/>
@@ -37764,7 +37773,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37778,7 +37787,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37792,7 +37801,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37806,7 +37815,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37820,7 +37829,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37834,7 +37843,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37848,7 +37857,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37862,7 +37871,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37876,7 +37885,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -37890,7 +37899,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -37904,7 +37913,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -37918,7 +37927,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -37932,7 +37941,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -37946,7 +37955,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -37960,7 +37969,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -37974,7 +37983,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -37988,7 +37997,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -38002,7 +38011,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38016,7 +38025,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38030,7 +38039,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38044,7 +38053,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38058,7 +38067,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38072,7 +38081,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38086,7 +38095,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38100,7 +38109,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38114,7 +38123,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38128,7 +38137,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38142,7 +38151,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38156,7 +38165,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38170,7 +38179,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38184,7 +38193,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38198,7 +38207,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38212,7 +38221,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38226,7 +38235,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38240,7 +38249,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38254,7 +38263,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38268,7 +38277,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38282,7 +38291,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38296,7 +38305,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38310,7 +38319,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38324,7 +38333,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38338,7 +38347,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38352,7 +38361,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38366,7 +38375,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38380,7 +38389,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38394,7 +38403,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38408,7 +38417,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38422,7 +38431,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38436,7 +38445,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38450,7 +38459,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38464,7 +38473,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38478,7 +38487,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38492,7 +38501,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38506,7 +38515,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38520,7 +38529,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38534,7 +38543,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38548,7 +38557,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38562,7 +38571,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38576,7 +38585,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38590,7 +38599,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38604,7 +38613,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38618,7 +38627,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38632,7 +38641,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38646,7 +38655,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38660,7 +38669,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38674,7 +38683,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38688,7 +38697,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38702,7 +38711,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38716,7 +38725,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38730,7 +38739,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38744,7 +38753,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38758,7 +38767,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38772,7 +38781,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38786,7 +38795,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38800,7 +38809,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38814,7 +38823,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38828,7 +38837,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38842,7 +38851,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38856,7 +38865,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38870,7 +38879,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38884,7 +38893,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -38898,7 +38907,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -38912,7 +38921,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -38926,7 +38935,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -38940,7 +38949,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -38954,7 +38963,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -38968,7 +38977,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -38982,7 +38991,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -38996,7 +39005,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -39010,7 +39019,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39024,7 +39033,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
         <v/>
@@ -39039,14 +39048,21 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A4:C303">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -53374,11 +53390,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53449,11 +53465,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53466,7 +53482,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Hustad, Sofie Nordsveen</v>
@@ -53497,11 +53513,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53514,7 +53530,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Sjøvold, Pauline Johnsen</v>
@@ -53538,7 +53554,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Øistuen, Gina Flugstad</v>
@@ -53562,7 +53578,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Ensrud, Julie Synnøve</v>
@@ -53586,14 +53602,14 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Forren, Pauline</v>
       </c>
       <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v>DBS</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>
@@ -53610,14 +53626,14 @@
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v>Øren, Karoline Bye</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="36" t="str">
         <f>IF('K1'!A11="", "",'K1'!H11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!I11)</f>
@@ -53634,7 +53650,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v/>
@@ -53658,7 +53674,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v/>
@@ -53682,7 +53698,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v/>
@@ -53706,7 +53722,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v/>
@@ -53730,7 +53746,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v/>
@@ -53754,7 +53770,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v/>
@@ -53778,7 +53794,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v/>
@@ -53802,7 +53818,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v/>
@@ -53826,7 +53842,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -53850,7 +53866,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -53874,7 +53890,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -53898,7 +53914,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -53922,7 +53938,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -53946,7 +53962,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -53970,7 +53986,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -53994,7 +54010,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54018,7 +54034,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54042,7 +54058,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54066,7 +54082,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54090,7 +54106,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54114,7 +54130,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54138,7 +54154,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54162,7 +54178,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54186,7 +54202,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54210,7 +54226,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54234,7 +54250,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54258,7 +54274,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54282,7 +54298,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54306,7 +54322,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54330,7 +54346,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54354,7 +54370,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54378,7 +54394,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54402,7 +54418,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54426,7 +54442,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54450,7 +54466,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54474,7 +54490,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54498,7 +54514,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54522,7 +54538,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54546,7 +54562,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54570,7 +54586,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54594,7 +54610,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54618,7 +54634,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54642,7 +54658,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54666,7 +54682,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54690,7 +54706,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54714,7 +54730,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54738,7 +54754,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54762,7 +54778,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54786,7 +54802,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54810,7 +54826,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -54834,7 +54850,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -54858,7 +54874,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -54882,7 +54898,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -54906,7 +54922,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -54930,7 +54946,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -54954,7 +54970,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -54978,7 +54994,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -55002,7 +55018,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55026,7 +55042,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55050,7 +55066,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55074,7 +55090,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55098,7 +55114,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55122,7 +55138,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55146,7 +55162,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55170,7 +55186,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55194,7 +55210,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55218,7 +55234,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55242,7 +55258,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55266,7 +55282,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55290,7 +55306,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55314,7 +55330,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55338,7 +55354,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55362,7 +55378,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55386,7 +55402,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55410,7 +55426,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55434,7 +55450,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55458,7 +55474,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55482,7 +55498,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55506,7 +55522,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55530,7 +55546,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55554,7 +55570,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55578,7 +55594,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55602,7 +55618,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55626,7 +55642,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55650,7 +55666,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55674,7 +55690,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55698,7 +55714,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55722,7 +55738,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55746,7 +55762,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55770,7 +55786,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55794,7 +55810,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55809,7 +55825,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -55824,10 +55840,18 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
